--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>CHPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>31300</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -770,13 +777,16 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>9200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,13 +825,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>25400</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4600</v>
+        <v>87100</v>
       </c>
       <c r="E17" s="3">
+        <v>314900</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
       <c r="I17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,42 +1042,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D20" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>86600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1067,66 +1104,75 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4600</v>
+        <v>82300</v>
       </c>
       <c r="E23" s="3">
+        <v>-314900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
-        <v>900</v>
-      </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1140,22 +1186,25 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4500</v>
+        <v>82300</v>
       </c>
       <c r="E26" s="3">
+        <v>-314900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>600</v>
-      </c>
       <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4500</v>
+        <v>-84500</v>
       </c>
       <c r="E27" s="3">
+        <v>-314900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>600</v>
-      </c>
       <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D32" s="3">
+        <v>-130400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4500</v>
+        <v>-84500</v>
       </c>
       <c r="E33" s="3">
+        <v>-314900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>600</v>
-      </c>
       <c r="I33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4500</v>
+        <v>-84500</v>
       </c>
       <c r="E35" s="3">
+        <v>-314900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>600</v>
-      </c>
       <c r="I35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>609800</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,71 +1681,80 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>34900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>28900</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>20300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -1664,138 +1763,153 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>693900</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>317000</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>317000</v>
       </c>
       <c r="F47" s="3">
+        <v>317000</v>
+      </c>
+      <c r="G47" s="3">
         <v>317400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>317300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>316400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>315100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>53000</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,13 +1969,16 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>5000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1872,17 +1992,20 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I52" s="3">
+        <v>316400</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>753100</v>
+      </c>
+      <c r="E54" s="3">
         <v>317300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>317200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>317700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>317800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>317200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>316200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,16 +2095,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>18100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -1983,24 +2114,27 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2017,72 +2151,81 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E60" s="3">
         <v>5900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1000</v>
       </c>
       <c r="G60" s="3">
         <v>1000</v>
       </c>
       <c r="H60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,16 +2253,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10900</v>
+        <v>163800</v>
       </c>
       <c r="E62" s="3">
-        <v>10900</v>
+        <v>330800</v>
       </c>
       <c r="F62" s="3">
         <v>10900</v>
@@ -2131,16 +2277,19 @@
         <v>10900</v>
       </c>
       <c r="I62" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J62" s="3">
         <v>10900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16900</v>
+        <v>268700</v>
       </c>
       <c r="E66" s="3">
+        <v>336800</v>
+      </c>
+      <c r="F66" s="3">
         <v>12200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>11900</v>
       </c>
       <c r="G66" s="3">
         <v>11900</v>
       </c>
       <c r="H66" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="I66" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J66" s="3">
         <v>11400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4200</v>
+        <v>-597100</v>
       </c>
       <c r="E72" s="3">
+        <v>-315800</v>
+      </c>
+      <c r="F72" s="3">
         <v>300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1200</v>
       </c>
-      <c r="H72" s="3">
-        <v>800</v>
-      </c>
       <c r="I72" s="3">
+        <v>300</v>
+      </c>
+      <c r="J72" s="3">
         <v>100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>300500</v>
+        <v>484300</v>
       </c>
       <c r="E76" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F76" s="3">
         <v>305000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>305800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>305900</v>
       </c>
-      <c r="H76" s="3">
-        <v>305500</v>
-      </c>
       <c r="I76" s="3">
+        <v>295900</v>
+      </c>
+      <c r="J76" s="3">
         <v>304800</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4500</v>
+        <v>-84500</v>
       </c>
       <c r="E81" s="3">
+        <v>-314900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>600</v>
-      </c>
       <c r="I81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,28 +3164,31 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>315500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>464300</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>CHPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E8" s="3">
         <v>40500</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -742,23 +746,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E9" s="3">
         <v>31300</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,17 +787,20 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E10" s="3">
         <v>9200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,17 +839,18 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E12" s="3">
         <v>25400</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,49 +991,53 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E17" s="3">
         <v>87100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>314900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46600</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,14 +1053,17 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,17 +1076,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E20" s="3">
         <v>130400</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1069,23 +1103,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E21" s="3">
         <v>86600</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,17 +1144,20 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1133,51 +1173,57 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E23" s="3">
         <v>82300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-314900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1189,22 +1235,25 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E26" s="3">
         <v>82300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-314900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-84500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-314900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,17 +1494,20 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-130400</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1453,46 +1523,52 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-84500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-314900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-84500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-314900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>618100</v>
+      </c>
+      <c r="E41" s="3">
         <v>609800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,17 +1774,20 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E43" s="3">
         <v>34900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,23 +1803,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E44" s="3">
         <v>28900</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,22 +1838,25 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E45" s="3">
         <v>20300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -1766,95 +1865,104 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>711300</v>
+      </c>
+      <c r="E46" s="3">
         <v>693900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>317000</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>317000</v>
       </c>
       <c r="G47" s="3">
+        <v>317000</v>
+      </c>
+      <c r="H47" s="3">
         <v>317400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>317300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>316400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>315100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E48" s="3">
         <v>53000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,22 +1978,25 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="E49" s="3">
+        <v>1200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1902,14 +2013,17 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,16 +2089,19 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>5000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1992,20 +2112,23 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>316400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>770600</v>
+      </c>
+      <c r="E54" s="3">
         <v>753100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>317300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>317200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>317700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>317800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>317200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>316200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,19 +2226,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E57" s="3">
         <v>18100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2117,115 +2248,127 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E59" s="3">
         <v>86800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E60" s="3">
         <v>104900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>1000</v>
       </c>
       <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,19 +2399,22 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E62" s="3">
         <v>163800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>330800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>10900</v>
       </c>
       <c r="G62" s="3">
         <v>10900</v>
@@ -2277,19 +2423,22 @@
         <v>10900</v>
       </c>
       <c r="I62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J62" s="3">
         <v>20500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>235600</v>
+      </c>
+      <c r="E66" s="3">
         <v>268700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>336800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>11900</v>
       </c>
       <c r="H66" s="3">
         <v>11900</v>
       </c>
       <c r="I66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J66" s="3">
         <v>21300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-682100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-597100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-315800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E76" s="3">
         <v>484300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-19400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>305000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>305800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>305900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>295900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>304800</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-84500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-314900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,17 +3031,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,14 +3058,17 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,17 +3291,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,14 +3318,17 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3394,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,48 +3584,54 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E100" s="3">
         <v>506000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>315500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3399,42 +3648,48 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>464300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>CHPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E8" s="3">
         <v>56100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40500</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -749,26 +753,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E9" s="3">
         <v>45300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>31300</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,20 +797,23 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,20 +853,21 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E12" s="3">
         <v>40400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25400</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1018,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,46 +1028,49 @@
         <v>130400</v>
       </c>
       <c r="E17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="F17" s="3">
         <v>87100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>314900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-74300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46600</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,14 +1086,17 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,20 +1110,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>130400</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,26 +1140,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-82000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>86600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,11 +1196,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,58 +1216,64 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-84900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>82300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-314900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1238,22 +1284,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-84900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>82300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-314900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-84900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-84500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-314900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,20 +1564,23 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="3">
         <v>10600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-130400</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,49 +1596,55 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-84900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-84500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-314900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-84900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-84500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-314900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>365500</v>
+      </c>
+      <c r="E41" s="3">
         <v>618100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>609800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,20 +1867,23 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E43" s="3">
         <v>42700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1806,26 +1899,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E44" s="3">
         <v>27900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28900</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1841,25 +1937,28 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E45" s="3">
         <v>22500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -1868,57 +1967,63 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>494600</v>
+      </c>
+      <c r="E46" s="3">
         <v>711300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>693900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1928,44 +2033,47 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>317000</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>317000</v>
       </c>
       <c r="H47" s="3">
+        <v>317000</v>
+      </c>
+      <c r="I47" s="3">
         <v>317400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>317300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>316400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>315100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E48" s="3">
         <v>53100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>53000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,25 +2089,28 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1200</v>
+        <v>343200</v>
       </c>
       <c r="E49" s="3">
         <v>1200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>1200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2016,14 +2127,17 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,19 +2209,22 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="E52" s="3">
         <v>5000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>5000</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2115,20 +2235,23 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>316400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>901500</v>
+      </c>
+      <c r="E54" s="3">
         <v>770600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>753100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>317300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>317200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>317700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>317800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>317200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>316200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,22 +2357,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E57" s="3">
         <v>28400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2251,19 +2382,22 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2288,87 +2422,96 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E59" s="3">
         <v>99700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>86800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E60" s="3">
         <v>128200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>104900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1000</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,22 +2545,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E62" s="3">
         <v>107400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>163800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>330800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10900</v>
       </c>
       <c r="H62" s="3">
         <v>10900</v>
@@ -2426,19 +2572,22 @@
         <v>10900</v>
       </c>
       <c r="J62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K62" s="3">
         <v>20500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>316100</v>
+      </c>
+      <c r="E66" s="3">
         <v>235600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>268700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>336800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>11900</v>
       </c>
       <c r="I66" s="3">
         <v>11900</v>
       </c>
       <c r="J66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K66" s="3">
         <v>21300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-751500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-682100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-597100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-315800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>585400</v>
+      </c>
+      <c r="E76" s="3">
         <v>535000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>484300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-19400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>305000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>305800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>305900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>295900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>304800</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-84900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-84500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-314900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,20 +3230,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,14 +3260,17 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,20 +3512,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3321,14 +3542,17 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,34 +3624,37 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-209600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,54 +3830,60 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E100" s="3">
         <v>35600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>506000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>315500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3651,45 +3900,51 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-252600</v>
+      </c>
+      <c r="E102" s="3">
         <v>8300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>464300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>CHPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E8" s="3">
         <v>65000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>56100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -756,29 +760,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E9" s="3">
         <v>49000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>31300</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,23 +807,26 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E10" s="3">
         <v>16000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,23 +867,24 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E12" s="3">
         <v>36800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>40400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25400</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,31 +947,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>4800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,61 +1045,65 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>130400</v>
+        <v>158600</v>
       </c>
       <c r="E17" s="3">
         <v>130400</v>
       </c>
       <c r="F17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="G17" s="3">
         <v>87100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>314900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-65400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-74300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-46600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1089,14 +1119,17 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,23 +1144,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>130400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,29 +1177,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-65200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-82000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>86600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1199,11 +1239,11 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,64 +1259,70 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-69800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-84900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>82300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-314900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1287,22 +1333,25 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-69400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-84900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>82300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-314900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-69400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-84900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-84500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-314900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,23 +1634,26 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E32" s="3">
         <v>4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-130400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1599,52 +1669,58 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-69400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-84900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-84500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-314900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-69400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-84900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-84500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-314900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E41" s="3">
         <v>365500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>618100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>609800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,23 +1960,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E43" s="3">
         <v>66100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1902,29 +1995,32 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E44" s="3">
         <v>29900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>27900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28900</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,28 +2036,31 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E45" s="3">
         <v>33100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -1970,60 +2069,66 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>464100</v>
+      </c>
+      <c r="E46" s="3">
         <v>494600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>711300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>693900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2036,47 +2141,50 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>317000</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>317000</v>
       </c>
       <c r="I47" s="3">
+        <v>317000</v>
+      </c>
+      <c r="J47" s="3">
         <v>317400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>317300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>316400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>315100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E48" s="3">
         <v>58300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>53100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>53000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2092,28 +2200,31 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E49" s="3">
         <v>343200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1200</v>
       </c>
       <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>1200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2130,14 +2241,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,22 +2329,25 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5000</v>
       </c>
       <c r="F52" s="3">
         <v>5000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>5000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2238,20 +2358,23 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>316400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>855900</v>
+      </c>
+      <c r="E54" s="3">
         <v>901500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>770600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>753100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>317300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>317200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>317700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>317800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>317200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>316200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,25 +2488,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E57" s="3">
         <v>32100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2385,19 +2516,22 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2425,93 +2559,102 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>161500</v>
+      </c>
+      <c r="E59" s="3">
         <v>135400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>99700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>86800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E60" s="3">
         <v>167400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>128200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>104900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1000</v>
       </c>
       <c r="J60" s="3">
         <v>1000</v>
       </c>
       <c r="K60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,25 +2691,28 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E62" s="3">
         <v>148600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>107400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>163800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>330800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10900</v>
       </c>
       <c r="I62" s="3">
         <v>10900</v>
@@ -2575,19 +2721,22 @@
         <v>10900</v>
       </c>
       <c r="K62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="L62" s="3">
         <v>20500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>308900</v>
+      </c>
+      <c r="E66" s="3">
         <v>316100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>235600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>268700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>336800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>11900</v>
       </c>
       <c r="J66" s="3">
         <v>11900</v>
       </c>
       <c r="K66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="L66" s="3">
         <v>21300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-811700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-751500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-682100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-597100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-315800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E76" s="3">
         <v>585400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>535000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>484300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-19400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>305000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>305800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>305900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>295900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>304800</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-69400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-84900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-84500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-314900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,23 +3429,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3263,14 +3462,17 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-47900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,14 +3743,14 @@
         <v>-4300</v>
       </c>
       <c r="E91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3545,14 +3766,17 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,37 +3854,40 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-209600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,60 +4076,66 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>35600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>506000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>315500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3903,48 +4152,54 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-252600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>464300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>CHPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,97 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
-        <v>44196</v>
-      </c>
       <c r="I7" s="2">
-        <v>44104</v>
+        <v>44227</v>
       </c>
       <c r="J7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E8" s="3">
         <v>79300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>65000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>56100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>42400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>36400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,37 +766,40 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E9" s="3">
         <v>61900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>29100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -810,31 +816,34 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E10" s="3">
         <v>17400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,31 +880,32 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E12" s="3">
         <v>42500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25400</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>18900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,20 +966,23 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,8 +995,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,72 +1071,76 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>171500</v>
+      </c>
+      <c r="E17" s="3">
         <v>158600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>130400</v>
       </c>
       <c r="F17" s="3">
         <v>130400</v>
       </c>
       <c r="G17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="H17" s="3">
         <v>87100</v>
       </c>
-      <c r="H17" s="3">
-        <v>314900</v>
-      </c>
       <c r="I17" s="3">
-        <v>800</v>
+        <v>77700</v>
       </c>
       <c r="J17" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-79300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-65400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-74300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-46600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-32600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1122,14 +1151,17 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,31 +1177,32 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>16400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>130400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-7400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1180,37 +1213,40 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-56600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-65200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-82000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>86600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-37200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1227,13 +1263,16 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1242,16 +1281,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1262,70 +1301,76 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-62900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-69800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-84900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>82300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-314900</v>
-      </c>
       <c r="I23" s="3">
-        <v>-800</v>
+        <v>-90800</v>
       </c>
       <c r="J23" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1333,25 +1378,28 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-60100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-69400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-84900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>82300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-314900</v>
-      </c>
       <c r="I26" s="3">
-        <v>-800</v>
+        <v>-90700</v>
       </c>
       <c r="J26" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-60100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-69400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-84900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-84500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-314900</v>
-      </c>
       <c r="I27" s="3">
-        <v>-800</v>
+        <v>-103600</v>
       </c>
       <c r="J27" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,31 +1703,34 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-130400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>54600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>7400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1672,55 +1741,61 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-60100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-69400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-84900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-84500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-314900</v>
-      </c>
       <c r="I33" s="3">
-        <v>-800</v>
+        <v>-103600</v>
       </c>
       <c r="J33" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-60100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-69400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-84900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-84500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-314900</v>
-      </c>
       <c r="I35" s="3">
-        <v>-800</v>
+        <v>-103600</v>
       </c>
       <c r="J35" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
-        <v>44196</v>
-      </c>
       <c r="I38" s="2">
-        <v>44104</v>
+        <v>44227</v>
       </c>
       <c r="J38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>540600</v>
+      </c>
+      <c r="E41" s="3">
         <v>315200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>365500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>618100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>609800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>145500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>168700</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>400</v>
+      </c>
+      <c r="N41" s="3">
+        <v>800</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,31 +2052,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E43" s="3">
         <v>75900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>66100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>28300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1998,37 +2090,40 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E44" s="3">
         <v>35900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>27900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>28900</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>33600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>30700</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2039,160 +2134,172 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E45" s="3">
         <v>37000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>712200</v>
+      </c>
+      <c r="E46" s="3">
         <v>464100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>494600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>711300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>693900</v>
       </c>
-      <c r="H46" s="3">
-        <v>400</v>
-      </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>226600</v>
       </c>
       <c r="J46" s="3">
+        <v>242900</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>317000</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>317000</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>317400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>317300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>316400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>315100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E48" s="3">
         <v>60100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>58300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>53100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>53000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>51800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>50800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2203,37 +2310,40 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>309600</v>
+      </c>
+      <c r="E49" s="3">
         <v>325700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>343200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1200</v>
       </c>
       <c r="G49" s="3">
         <v>1200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2244,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
         <v>6000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5000</v>
       </c>
       <c r="G52" s="3">
         <v>5000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>316400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1087300</v>
+      </c>
+      <c r="E54" s="3">
         <v>855900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>901500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>770600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>753100</v>
       </c>
-      <c r="H54" s="3">
-        <v>317300</v>
-      </c>
       <c r="I54" s="3">
+        <v>290100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>299300</v>
+      </c>
+      <c r="K54" s="3">
+        <v>317700</v>
+      </c>
+      <c r="L54" s="3">
+        <v>317800</v>
+      </c>
+      <c r="M54" s="3">
         <v>317200</v>
       </c>
-      <c r="J54" s="3">
-        <v>317700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>317800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>317200</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>316200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,54 +2618,58 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E57" s="3">
         <v>27600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>19800</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>16700</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2551,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2562,104 +2695,113 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E59" s="3">
         <v>161500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>135400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>99700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>86800</v>
       </c>
-      <c r="H59" s="3">
-        <v>5900</v>
-      </c>
       <c r="I59" s="3">
-        <v>1200</v>
+        <v>88100</v>
       </c>
       <c r="J59" s="3">
+        <v>76700</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E60" s="3">
         <v>189000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>167400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>128200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>104900</v>
       </c>
-      <c r="H60" s="3">
-        <v>5900</v>
-      </c>
       <c r="I60" s="3">
-        <v>1200</v>
+        <v>118100</v>
       </c>
       <c r="J60" s="3">
-        <v>1000</v>
+        <v>99300</v>
       </c>
       <c r="K60" s="3">
         <v>1000</v>
       </c>
       <c r="L60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>294100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2674,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>24700</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>28900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2694,49 +2836,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E62" s="3">
         <v>119800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>148600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>107400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>163800</v>
       </c>
-      <c r="H62" s="3">
-        <v>330800</v>
-      </c>
       <c r="I62" s="3">
-        <v>10900</v>
+        <v>148200</v>
       </c>
       <c r="J62" s="3">
-        <v>10900</v>
+        <v>86300</v>
       </c>
       <c r="K62" s="3">
         <v>10900</v>
       </c>
       <c r="L62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M62" s="3">
         <v>20500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>622200</v>
+      </c>
+      <c r="E66" s="3">
         <v>308900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>316100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>235600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>268700</v>
       </c>
-      <c r="H66" s="3">
-        <v>336800</v>
-      </c>
       <c r="I66" s="3">
-        <v>12200</v>
+        <v>290900</v>
       </c>
       <c r="J66" s="3">
-        <v>11900</v>
+        <v>214500</v>
       </c>
       <c r="K66" s="3">
         <v>11900</v>
       </c>
       <c r="L66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="M66" s="3">
         <v>21300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3019,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>615700</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>615800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-900900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-811700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-751500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-682100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-597100</v>
       </c>
-      <c r="H72" s="3">
-        <v>-315800</v>
-      </c>
       <c r="I72" s="3">
+        <v>200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M72" s="3">
         <v>300</v>
       </c>
-      <c r="J72" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>300</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>465100</v>
+      </c>
+      <c r="E76" s="3">
         <v>547000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>585400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>535000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>484300</v>
       </c>
-      <c r="H76" s="3">
-        <v>-19400</v>
-      </c>
       <c r="I76" s="3">
-        <v>305000</v>
+        <v>-616500</v>
       </c>
       <c r="J76" s="3">
+        <v>-531000</v>
+      </c>
+      <c r="K76" s="3">
         <v>305800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>305900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>295900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>304800</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
-        <v>44196</v>
-      </c>
       <c r="I80" s="2">
-        <v>44104</v>
+        <v>44227</v>
       </c>
       <c r="J80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-60100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-69400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-84900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-84500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-314900</v>
-      </c>
       <c r="I81" s="3">
-        <v>-800</v>
+        <v>-103600</v>
       </c>
       <c r="J81" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,31 +3627,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3465,14 +3663,17 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-48100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-47900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37500</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I89" s="3">
-        <v>-600</v>
+        <v>-20900</v>
       </c>
       <c r="J89" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,31 +3953,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4300</v>
+        <v>-3200</v>
       </c>
       <c r="E91" s="3">
         <v>-4300</v>
       </c>
       <c r="F91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3769,14 +3989,17 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,40 +4083,43 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-209600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>500</v>
+        <v>-2600</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,72 +4321,78 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>303100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>35600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>506000</v>
       </c>
-      <c r="H100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>315500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4155,51 +4403,57 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-252600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>464300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N102" s="3">
+        <v>800</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M102" s="3">
-        <v>800</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>CHPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E8" s="3">
         <v>81600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>65000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>56100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,41 +773,44 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E9" s="3">
         <v>69500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>61900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>31300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>33500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,35 +826,38 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E10" s="3">
         <v>12100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,35 +894,36 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E12" s="3">
         <v>48300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>42500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>36800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>40400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,23 +986,26 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -998,8 +1018,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,79 +1098,83 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E17" s="3">
         <v>171500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>158600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>130400</v>
       </c>
       <c r="G17" s="3">
         <v>130400</v>
       </c>
       <c r="H17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="I17" s="3">
         <v>87100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>69000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-90400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-89900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-79300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-65400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-74300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-46600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-32600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1154,14 +1184,17 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,35 +1211,36 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>130400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-54600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,41 +1250,44 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-84000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-56600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-65200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-82000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>86600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-87300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-37200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,17 +1303,20 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1284,16 +1324,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>1500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>800</v>
       </c>
       <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>800</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1304,102 +1344,111 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-91100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-62900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-69800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-84900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>82300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-90800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-92700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-89300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-60100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-69400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-84900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>82300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-90700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-92700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-89300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-60100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-69400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-84900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-84500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-103600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-46600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,35 +1773,38 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-130400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>54600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1744,58 +1814,64 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-92700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-89300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-60100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-69400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-84900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-84500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-103600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-46600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-92700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-89300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-60100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-69400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-84900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-84500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-103600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-46600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,75 +2053,79 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E41" s="3">
         <v>540600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>315200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>365500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>618100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>609800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>145500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>168700</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>283900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2055,35 +2145,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E43" s="3">
         <v>79900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>75900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>66100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,41 +2186,44 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E44" s="3">
         <v>45300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>35900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>27900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>33600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>30700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,102 +2233,111 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E45" s="3">
         <v>46500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>680200</v>
+      </c>
+      <c r="E46" s="3">
         <v>712200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>464100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>494600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>711300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>693900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>226600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>242900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2258,52 +2363,55 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>317400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>317300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>316400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>315100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E48" s="3">
         <v>59200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>60100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>58300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>53100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>51800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2313,28 +2421,31 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E49" s="3">
         <v>309600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>325700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>343200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1200</v>
       </c>
       <c r="H49" s="3">
         <v>1200</v>
@@ -2345,8 +2456,8 @@
       <c r="J49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>1200</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5000</v>
       </c>
       <c r="H52" s="3">
         <v>5000</v>
       </c>
       <c r="I52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J52" s="3">
         <v>10500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>316400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1087300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>855900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>901500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>770600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>753100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>290100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>299300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>317700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>317800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>317200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>316200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,60 +2749,64 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E57" s="3">
         <v>35400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2684,128 +2818,137 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>10200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5800</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>193600</v>
+      </c>
+      <c r="E59" s="3">
         <v>177500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>161500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>135400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>99700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>86800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>88100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E60" s="3">
         <v>212800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>189000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>167400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>128200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>104900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>118100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>99300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>294300</v>
+      </c>
+      <c r="E61" s="3">
         <v>294100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2816,14 +2959,14 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>24700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>28900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,52 +2982,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>121200</v>
+      </c>
+      <c r="E62" s="3">
         <v>115300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>119800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>148600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>107400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>163800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>148200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>86300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>10900</v>
       </c>
       <c r="L62" s="3">
         <v>10900</v>
       </c>
       <c r="M62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="N62" s="3">
         <v>20500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>654300</v>
+      </c>
+      <c r="E66" s="3">
         <v>622200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>308900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>316100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>235600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>268700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>290900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>214500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>11900</v>
       </c>
       <c r="L66" s="3">
         <v>11900</v>
       </c>
       <c r="M66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="N66" s="3">
         <v>21300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,14 +3354,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>615700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>615800</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-993600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-900900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-811700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-751500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-682100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-597100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>200</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>391700</v>
+      </c>
+      <c r="E76" s="3">
         <v>465100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>547000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>585400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>535000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>484300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-616500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-531000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>305800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>305900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>295900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>304800</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-92700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-89300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-60100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-69400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-84900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-84500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-103600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-46600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,35 +3826,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3666,14 +3865,17 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-70800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-48100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-47900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-37500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-20900</v>
       </c>
       <c r="J89" s="3">
         <v>-20900</v>
       </c>
       <c r="K89" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,35 +4174,36 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-4300</v>
       </c>
       <c r="F91" s="3">
         <v>-4300</v>
       </c>
       <c r="G91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3992,14 +4213,17 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,43 +4313,46 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-290500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-209600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,78 +4567,84 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>303100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>35600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>506000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>315500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4406,54 +4655,60 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-352900</v>
+      </c>
+      <c r="E102" s="3">
         <v>225300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-252600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>464300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>CHPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E8" s="3">
         <v>108300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>81600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>79300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>65000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>56100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>42400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,44 +780,47 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E9" s="3">
         <v>90100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>69500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>61900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>49000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>33500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -829,38 +836,41 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E10" s="3">
         <v>18200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,38 +908,39 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E12" s="3">
         <v>51800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>48300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>42500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>36800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>40400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,15 +1020,15 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,8 +1041,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,85 +1125,89 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E17" s="3">
         <v>198700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>171500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>158600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>130400</v>
       </c>
       <c r="H17" s="3">
         <v>130400</v>
       </c>
       <c r="I17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="J17" s="3">
         <v>87100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-90400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-89900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-79300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-65400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-74300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-46600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,14 +1217,17 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,38 +1245,39 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>130400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-54600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1253,44 +1287,47 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-83900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-84000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-56600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-65200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-82000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>86600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-87300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,20 +1343,23 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1327,16 +1367,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>800</v>
       </c>
       <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>800</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1347,61 +1387,67 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-93100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-91100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-62900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-69800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-84900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>82300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-90800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,46 +1455,49 @@
         <v>-400</v>
       </c>
       <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-92700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-89300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-60100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-69400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-84900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>82300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-90700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-92700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-89300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-60100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-69400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-84900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-84500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-103600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-46600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,38 +1843,41 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-130400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>54600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,61 +1887,67 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-92700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-89300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-60100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-69400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-84900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-84500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-103600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-46600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-92700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-89300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-60100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-69400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-84900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-84500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-103600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-46600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,64 +2140,68 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E41" s="3">
         <v>187700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>540600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>315200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>365500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>618100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>609800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>145500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168700</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E42" s="3">
         <v>283900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2217,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2148,38 +2238,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E43" s="3">
         <v>109900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>79900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>75900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>66100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,44 +2282,47 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E44" s="3">
         <v>53400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>45300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>27900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>33600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>30700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,108 +2332,117 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E45" s="3">
         <v>45300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>641600</v>
+      </c>
+      <c r="E46" s="3">
         <v>680200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>712200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>464100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>494600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>711300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>693900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>226600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>242900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2366,55 +2471,58 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>317400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>317300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>316400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>315100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E48" s="3">
         <v>59300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>58300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,31 +2532,34 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>291400</v>
+      </c>
+      <c r="E49" s="3">
         <v>300100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>309600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>325700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>343200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1200</v>
       </c>
       <c r="I49" s="3">
         <v>1200</v>
@@ -2459,8 +2570,8 @@
       <c r="K49" s="3">
         <v>1200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>1200</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2471,14 +2582,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5000</v>
       </c>
       <c r="I52" s="3">
         <v>5000</v>
       </c>
       <c r="J52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K52" s="3">
         <v>10500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>316400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1046000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1087300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>855900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>901500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>770600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>753100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>290100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>299300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>317700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>317800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>317200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>316200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E57" s="3">
         <v>45100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2808,8 +2942,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2821,137 +2955,146 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>10200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5800</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>193800</v>
+      </c>
+      <c r="E59" s="3">
         <v>193600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>177500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>161500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>135400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>99700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>86800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>88100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>238400</v>
+      </c>
+      <c r="E60" s="3">
         <v>238800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>212800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>189000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>167400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>128200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>104900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>118100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>99300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1000</v>
       </c>
       <c r="M60" s="3">
         <v>1000</v>
       </c>
       <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>294600</v>
+      </c>
+      <c r="E61" s="3">
         <v>294300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>294100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2962,14 +3105,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>24700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,55 +3128,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E62" s="3">
         <v>121200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>115300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>119800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>148600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>107400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>163800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>148200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>86300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>10900</v>
       </c>
       <c r="M62" s="3">
         <v>10900</v>
       </c>
       <c r="N62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="O62" s="3">
         <v>20500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E66" s="3">
         <v>654300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>622200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>308900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>316100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>235600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>268700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>290900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>214500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>11900</v>
       </c>
       <c r="M66" s="3">
         <v>11900</v>
       </c>
       <c r="N66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="O66" s="3">
         <v>21300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,14 +3525,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>615700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>615800</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1078100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-993600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-900900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-811700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-751500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-682100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-597100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>200</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>338600</v>
+      </c>
+      <c r="E76" s="3">
         <v>391700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>465100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>547000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>585400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>535000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>484300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-616500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-531000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>305800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>305900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>295900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>304800</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-92700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-89300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-60100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-69400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-84900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-84500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-103600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-46600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,38 +4025,39 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,14 +4067,17 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-62900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-70800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-48100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-47900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-20900</v>
       </c>
       <c r="K89" s="3">
         <v>-20900</v>
       </c>
       <c r="L89" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,38 +4395,39 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4300</v>
       </c>
       <c r="G91" s="3">
         <v>-4300</v>
       </c>
       <c r="H91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4216,14 +4437,17 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,46 +4543,49 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-290500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-209600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,84 +4813,90 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>303100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>35600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>506000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>315500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4658,57 +4907,63 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-352900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>225300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-252600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>464300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>CHPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E8" s="3">
         <v>125300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>108300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>81600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>79300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>65000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -783,47 +787,50 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E9" s="3">
         <v>102700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>90100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>69500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>61900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,41 +846,44 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E10" s="3">
         <v>22600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,41 +922,42 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E12" s="3">
         <v>48100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>48300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>42500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>36800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>40400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1023,15 +1043,15 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1044,8 +1064,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,91 +1152,95 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E17" s="3">
         <v>208600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>198700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>171500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>158600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>130400</v>
       </c>
       <c r="I17" s="3">
         <v>130400</v>
       </c>
       <c r="J17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="K17" s="3">
         <v>87100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-78300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-83300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-90400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-89900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-79300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-65400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-74300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-46600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-35300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,14 +1250,17 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,41 +1279,42 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>130400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,47 +1324,50 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-76200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-83900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-84000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-56600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-65200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-82000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>86600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-87300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-37200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,23 +1383,26 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1370,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>1500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>800</v>
       </c>
       <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>800</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1390,114 +1430,123 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-84900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-93100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-91100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-62900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-69800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-84900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>82300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-90800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-400</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>-400</v>
       </c>
       <c r="F24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-84500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-92700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-89300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-60100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-69400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-84900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>82300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-90700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-84500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-92700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-89300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-60100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-69400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-84900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-84500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-103600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-46600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,41 +1913,44 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-130400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1890,64 +1960,70 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-84500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-92700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-89300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-60100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-69400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-84900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-84500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-103600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-46600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-84500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-92700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-89300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-60100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-69400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-84900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-84500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-103600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-46600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,70 +2227,74 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E41" s="3">
         <v>188300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>187700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>540600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>315200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>365500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>618100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>609800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>145500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>168700</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E42" s="3">
         <v>208900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>283900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,8 +2310,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2241,41 +2331,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>164900</v>
+      </c>
+      <c r="E43" s="3">
         <v>123000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>79900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>75900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>66100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>42700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,47 +2378,50 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E44" s="3">
         <v>62400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>53400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>45300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>27900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>30700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,114 +2431,123 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E45" s="3">
         <v>59000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>704200</v>
+      </c>
+      <c r="E46" s="3">
         <v>641600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>680200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>712200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>464100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>494600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>711300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>693900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>226600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>242900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2474,58 +2579,61 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>317400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>317300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>316400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>315100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E48" s="3">
         <v>60600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>58300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>53000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2535,34 +2643,37 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>306400</v>
+      </c>
+      <c r="E49" s="3">
         <v>291400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>300100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>309600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>325700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>343200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1200</v>
       </c>
       <c r="J49" s="3">
         <v>1200</v>
@@ -2573,8 +2684,8 @@
       <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>1200</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2585,14 +2696,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E52" s="3">
         <v>7000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5000</v>
       </c>
       <c r="J52" s="3">
         <v>5000</v>
       </c>
       <c r="K52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>316400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1046000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1087300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>855900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>901500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>770600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>753100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>290100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>299300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>317700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>317800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>317200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>316200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,69 +3011,73 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E57" s="3">
         <v>44500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2958,146 +3092,155 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>10200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5800</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E59" s="3">
         <v>193800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>193600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>177500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>161500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>135400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>99700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>86800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>88100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>284300</v>
+      </c>
+      <c r="E60" s="3">
         <v>238400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>238800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>212800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>189000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>167400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>128200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>104900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>118100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>99300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1000</v>
       </c>
       <c r="N60" s="3">
         <v>1000</v>
       </c>
       <c r="O60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>294900</v>
+      </c>
+      <c r="E61" s="3">
         <v>294600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>294300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>294100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3108,14 +3251,14 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>24700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3131,58 +3274,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E62" s="3">
         <v>129000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>121200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>115300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>119800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>148600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>107400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>163800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>148200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>86300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>10900</v>
       </c>
       <c r="N62" s="3">
         <v>10900</v>
       </c>
       <c r="O62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="P62" s="3">
         <v>20500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>725000</v>
+      </c>
+      <c r="E66" s="3">
         <v>662000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>654300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>622200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>308900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>316100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>235600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>268700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>290900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>214500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>11900</v>
       </c>
       <c r="N66" s="3">
         <v>11900</v>
       </c>
       <c r="O66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="P66" s="3">
         <v>21300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,14 +3696,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>615700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>615800</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1156800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1078100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-993600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-900900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-811700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-751500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-682100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-597100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>200</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E76" s="3">
         <v>338600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>391700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>465100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>547000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>585400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>535000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>484300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-616500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-531000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>305800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>305900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>295900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>304800</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-84500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-92700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-89300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-60100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-69400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-84900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-84500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-103600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-46600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,41 +4224,42 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4070,14 +4269,17 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-83000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-62900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-70800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-48100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-37500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-20900</v>
       </c>
       <c r="L89" s="3">
         <v>-20900</v>
       </c>
       <c r="M89" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,41 +4616,42 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4300</v>
       </c>
       <c r="H91" s="3">
         <v>-4300</v>
       </c>
       <c r="I91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4440,14 +4661,17 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,49 +4773,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E94" s="3">
         <v>69700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-290500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-209600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,90 +5059,96 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E100" s="3">
         <v>14400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>303100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>35600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>506000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>315500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4910,60 +5159,66 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>105900</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-352900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>225300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-252600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>464300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>CHPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,125 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E8" s="3">
         <v>152800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>125300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>108300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>81600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>79300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>65000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,50 +793,53 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E9" s="3">
         <v>119800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>102700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>90100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>69500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>61900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,44 +855,47 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E10" s="3">
         <v>33000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,44 +935,45 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E12" s="3">
         <v>46700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>48100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>51800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>48300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>42500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>40400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1046,15 +1065,15 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1067,8 +1086,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,97 +1178,101 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E17" s="3">
         <v>231100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>208600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>198700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>171500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>158600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>130400</v>
       </c>
       <c r="J17" s="3">
         <v>130400</v>
       </c>
       <c r="K17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="L17" s="3">
         <v>87100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>69000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-78300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-83300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-90400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-89900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-79300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-65400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-74300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-46600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-32600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1253,14 +1282,17 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,44 +1312,45 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>130400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-54600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1327,50 +1360,53 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-68700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-76200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-83900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-84000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-56600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-65200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-82000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>86600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-87300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-37200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,26 +1422,29 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1413,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>800</v>
       </c>
       <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>800</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1433,120 +1472,129 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-78100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-84900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-93100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-91100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-62900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-69800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-84900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>82300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-90800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-400</v>
       </c>
       <c r="F24" s="3">
         <v>-400</v>
       </c>
       <c r="G24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-78700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-84500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-92700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-89300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-60100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-69400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-84900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>82300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-90700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-78700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-84500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-92700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-89300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-60100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-69400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-84900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-84500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-103600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-46600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,44 +1982,47 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-130400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>54600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,67 +2032,73 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-78700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-84500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-92700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-89300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-60100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-69400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-84900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-84500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-103600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-46600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-78700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-84500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-92700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-89300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-60100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-69400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-84900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-84500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-103600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-46600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,76 +2313,80 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>283300</v>
+      </c>
+      <c r="E41" s="3">
         <v>264200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>187700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>540600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>315200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>365500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>618100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>609800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>145500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>168700</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>105000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>208900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>283900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2313,8 +2402,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2334,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E43" s="3">
         <v>164900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>109900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>79900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>75900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>66100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>42700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,50 +2473,53 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E44" s="3">
         <v>68700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>62400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>53400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>45300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>35900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>27900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>30700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,120 +2529,129 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E45" s="3">
         <v>101400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>59000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>682200</v>
+      </c>
+      <c r="E46" s="3">
         <v>704200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>641600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>680200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>712200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>464100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>494600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>711300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>693900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>226600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>242900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2582,61 +2686,64 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>317400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>317300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>316400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>315100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E48" s="3">
         <v>62300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>60600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>58300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>53100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>51800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2646,37 +2753,40 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>307500</v>
+      </c>
+      <c r="E49" s="3">
         <v>306400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>291400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>300100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>309600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>325700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>343200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>1200</v>
@@ -2687,8 +2797,8 @@
       <c r="M49" s="3">
         <v>1200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>1200</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2699,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E52" s="3">
         <v>7100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5000</v>
       </c>
       <c r="K52" s="3">
         <v>5000</v>
       </c>
       <c r="L52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M52" s="3">
         <v>10500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>316400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1059800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1080000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1046000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1087300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>855900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>901500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>770600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>753100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>290100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>299300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>317700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>317800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>317200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>316200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E57" s="3">
         <v>62100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3095,155 +3228,164 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>10200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5800</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>226400</v>
+      </c>
+      <c r="E59" s="3">
         <v>222300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>193800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>193600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>177500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>161500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>135400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>99700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>86800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>88100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E60" s="3">
         <v>284300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>238400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>238800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>212800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>189000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>167400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>128200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>104900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>118100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>99300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1000</v>
       </c>
       <c r="O60" s="3">
         <v>1000</v>
       </c>
       <c r="P60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>295200</v>
+      </c>
+      <c r="E61" s="3">
         <v>294900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>294600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>294300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>294100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3254,14 +3396,14 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>24700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3277,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E62" s="3">
         <v>145700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>129000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>121200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>115300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>119800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>148600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>107400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>163800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>148200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>86300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>10900</v>
       </c>
       <c r="O62" s="3">
         <v>10900</v>
       </c>
       <c r="P62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="Q62" s="3">
         <v>20500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>732300</v>
+      </c>
+      <c r="E66" s="3">
         <v>725000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>662000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>654300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>622200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>308900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>316100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>235600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>268700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>290900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>214500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>11900</v>
       </c>
       <c r="O66" s="3">
         <v>11900</v>
       </c>
       <c r="P66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>21300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,14 +3866,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>615700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>615800</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1236200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1156800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1078100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-993600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-900900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-811700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-751500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-682100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-597100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>200</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
         <v>1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>327500</v>
+      </c>
+      <c r="E76" s="3">
         <v>355000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>338600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>391700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>465100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>547000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>585400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>535000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>484300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-616500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-531000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>305800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>305900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>295900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>304800</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-78700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-84500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-92700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-89300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-60100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-69400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-84900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-84500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-103600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-46600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,44 +4422,45 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4272,14 +4470,17 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-50400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-83000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-62900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-70800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-48100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-47900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-37500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-20900</v>
       </c>
       <c r="M89" s="3">
         <v>-20900</v>
       </c>
       <c r="N89" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,44 +4836,45 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-4300</v>
       </c>
       <c r="I91" s="3">
         <v>-4300</v>
       </c>
       <c r="J91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,14 +4884,17 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,52 +5002,55 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E94" s="3">
         <v>100600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>69700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-290500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-209600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,96 +5304,102 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E100" s="3">
         <v>54900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>303100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>35600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>506000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>315500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -5162,63 +5410,69 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E102" s="3">
         <v>105900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-352900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>225300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-252600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>464300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHPT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,132 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E8" s="3">
         <v>130000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>152800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>125300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>108300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>79300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>65000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,53 +800,56 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E9" s="3">
         <v>99500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>119800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>102700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>90100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>69500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>61900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,47 +865,50 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E10" s="3">
         <v>30500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,47 +949,48 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E12" s="3">
         <v>49400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>46700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>48100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>51800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>48300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>42500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1065,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>28000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1068,15 +1088,15 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1089,8 +1109,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,103 +1205,107 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>273800</v>
+      </c>
+      <c r="E17" s="3">
         <v>210000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>231100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>208600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>198700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>171500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>158600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>130400</v>
       </c>
       <c r="K17" s="3">
         <v>130400</v>
       </c>
       <c r="L17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="M17" s="3">
         <v>87100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>69000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-123300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-80000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-78300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-83300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-90400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-89900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-79300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-65400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-74300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-46600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-35300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-32600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1285,14 +1315,17 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,47 +1346,48 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>130400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,53 +1397,56 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-114500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-69800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-68700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-76200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-83900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-84000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-56600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-65200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-82000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>86600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-87300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-37200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,20 +1474,20 @@
         <v>2900</v>
       </c>
       <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1455,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>1500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>800</v>
       </c>
       <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>800</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1475,126 +1515,135 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-79800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-78100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-84900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-93100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-91100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-62900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-69800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-84900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>82300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-90800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-400</v>
       </c>
       <c r="G24" s="3">
         <v>-400</v>
       </c>
       <c r="H24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-79400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-78700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-84500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-92700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-89300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-60100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-69400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-84900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>82300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-90700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-40900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-79400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-78700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-84500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-92700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-89300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-60100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-69400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-84900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-84500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-103600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-46600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,47 +2052,50 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-130400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2035,70 +2105,76 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-79400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-78700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-84500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-92700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-89300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-60100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-69400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-84900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-84500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-103600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-46600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-79400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-78700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-84500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-92700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-89300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-60100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-69400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-84900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-84500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-103600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-46600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>233500</v>
+      </c>
+      <c r="E41" s="3">
         <v>283300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>264200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>188300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>187700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>540600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>315200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>365500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>618100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>609800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>145500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>168700</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2379,17 +2469,17 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>105000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>208900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>283900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2405,8 +2495,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2426,47 +2516,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E43" s="3">
         <v>165100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>164900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>123000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>109900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>79900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>75900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>66100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>28300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,53 +2569,56 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E44" s="3">
         <v>115200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>68700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>62400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>53400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>45300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>35900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>29900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>27900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>33600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30700</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2532,126 +2628,135 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E45" s="3">
         <v>118500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>101400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>692200</v>
+      </c>
+      <c r="E46" s="3">
         <v>682200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>704200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>641600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>680200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>712200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>464100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>494600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>711300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>693900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>226600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>242900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2689,25 +2794,28 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>317400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>317300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>316400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>315100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,38 +2823,38 @@
         <v>62900</v>
       </c>
       <c r="E48" s="3">
+        <v>62900</v>
+      </c>
+      <c r="F48" s="3">
         <v>62300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>58300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>51800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2756,40 +2864,43 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>304500</v>
+      </c>
+      <c r="E49" s="3">
         <v>307500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>306400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>291400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>309600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>325700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>343200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1200</v>
       </c>
       <c r="L49" s="3">
         <v>1200</v>
@@ -2800,8 +2911,8 @@
       <c r="N49" s="3">
         <v>1200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>1200</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2812,14 +2923,17 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
         <v>7300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5000</v>
       </c>
       <c r="L52" s="3">
         <v>5000</v>
       </c>
       <c r="M52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N52" s="3">
         <v>10500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
         <v>316400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1068400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1059800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1080000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1046000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1087300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>855900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>901500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>770600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>753100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>290100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>299300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>317700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>317800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>317200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>316200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E57" s="3">
         <v>62000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3231,164 +3365,173 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>10200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5800</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>241500</v>
+      </c>
+      <c r="E59" s="3">
         <v>226400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>222300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>193800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>193600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>177500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>161500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>135400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>99700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>86800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>88100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E60" s="3">
         <v>288400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>284300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>238400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>238800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>212800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>189000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>167400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>128200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>104900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>118100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>99300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>1000</v>
       </c>
       <c r="Q60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>295500</v>
+      </c>
+      <c r="E61" s="3">
         <v>295200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>294900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>294600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>294300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>294100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3399,14 +3542,14 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>24700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,64 +3565,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E62" s="3">
         <v>148700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>145700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>129000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>121200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>115300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>119800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>148600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>107400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>163800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>148200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>86300</v>
-      </c>
-      <c r="O62" s="3">
-        <v>10900</v>
       </c>
       <c r="P62" s="3">
         <v>10900</v>
       </c>
       <c r="Q62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="R62" s="3">
         <v>20500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>793200</v>
+      </c>
+      <c r="E66" s="3">
         <v>732300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>725000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>662000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>654300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>622200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>308900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>316100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>235600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>268700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>290900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>214500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>11900</v>
       </c>
       <c r="P66" s="3">
         <v>11900</v>
       </c>
       <c r="Q66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="R66" s="3">
         <v>21300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,14 +4037,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>615700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>615800</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1361400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1236200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1156800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1078100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-993600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-900900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-811700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-751500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-682100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-597100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>200</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
         <v>1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E76" s="3">
         <v>327500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>355000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>338600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>391700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>465100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>547000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>585400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>535000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>484300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-616500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-531000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>305800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>305900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>295900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>304800</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-79400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-78700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-84500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-92700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-89300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-60100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-69400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-84900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-84500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-103600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-46600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,47 +4621,48 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4473,14 +4672,17 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-104200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-50400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-83000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-62900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-70800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-48100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-47900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-20900</v>
       </c>
       <c r="N89" s="3">
         <v>-20900</v>
       </c>
       <c r="O89" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,47 +5057,48 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4300</v>
       </c>
       <c r="J91" s="3">
         <v>-4300</v>
       </c>
       <c r="K91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,14 +5108,17 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,55 +5232,58 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>99200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>69700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-290500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-209600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,102 +5550,108 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E100" s="3">
         <v>23800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>54900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>303100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>35600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>506000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>315500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -5413,66 +5662,72 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="E102" s="3">
         <v>19200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>105900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-352900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>225300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-252600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>464300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
